--- a/results/RuntimesAggregated.xlsx
+++ b/results/RuntimesAggregated.xlsx
@@ -12,14 +12,14 @@
   </sheets>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId3"/>
-    <pivotCache cacheId="101" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="7" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1559" uniqueCount="25">
   <si>
     <t>Dataset</t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t>Mittelwert von RuntimeMillis in Prozent und Sortiert wie im ursprünglichen Paper</t>
+  </si>
+  <si>
+    <t>Mittelwert von RuntimeMillis auf Laptop</t>
+  </si>
+  <si>
+    <t>Mittelwert von RuntimeMillis in Prozent auf Laptop</t>
   </si>
 </sst>
 </file>
@@ -707,7 +713,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -735,6 +741,8 @@
     <xf numFmtId="9" fontId="19" fillId="0" borderId="11" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="20" fillId="0" borderId="11" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="20" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -782,24 +790,6 @@
     <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="40">
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
@@ -870,14 +860,11 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -885,22 +872,6 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -921,30 +892,51 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -953,6 +945,22 @@
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1019,7 +1027,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Helmut Spengler" refreshedDate="43028.768044444441" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="151">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Helmut Spengler" refreshedDate="43032.527478935182" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="151">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:E301" sheet="moreQIs"/>
   </cacheSource>
@@ -1065,7 +1073,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="RuntimeMillis" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="125" maxValue="6823"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="101" maxValue="4354"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -3188,1050 +3196,1050 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="2937"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="1686"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="2642"/>
+    <n v="2054"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="1195"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="1191"/>
   </r>
   <r>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <x v="3"/>
-    <n v="1671"/>
+    <n v="1937"/>
   </r>
   <r>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <x v="4"/>
-    <n v="1911"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="3274"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="4192"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="3218"/>
+    <n v="1278"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="2419"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="2396"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="2945"/>
   </r>
   <r>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
     <x v="3"/>
-    <n v="3908"/>
+    <n v="2235"/>
   </r>
   <r>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
     <x v="4"/>
-    <n v="2973"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="4386"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="3205"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="4275"/>
+    <n v="2292"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="2289"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="2337"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="2336"/>
   </r>
   <r>
     <x v="0"/>
     <x v="0"/>
     <x v="2"/>
     <x v="3"/>
-    <n v="3143"/>
+    <n v="2380"/>
   </r>
   <r>
     <x v="0"/>
     <x v="0"/>
     <x v="2"/>
     <x v="4"/>
-    <n v="3184"/>
+    <n v="2277"/>
   </r>
   <r>
     <x v="0"/>
     <x v="0"/>
     <x v="3"/>
     <x v="0"/>
-    <n v="5040"/>
+    <n v="2992"/>
   </r>
   <r>
     <x v="0"/>
     <x v="0"/>
     <x v="3"/>
     <x v="1"/>
-    <n v="3890"/>
+    <n v="2996"/>
   </r>
   <r>
     <x v="0"/>
     <x v="0"/>
     <x v="3"/>
     <x v="2"/>
-    <n v="4143"/>
+    <n v="2976"/>
   </r>
   <r>
     <x v="0"/>
     <x v="0"/>
     <x v="3"/>
     <x v="3"/>
-    <n v="4929"/>
+    <n v="2981"/>
   </r>
   <r>
     <x v="0"/>
     <x v="0"/>
     <x v="3"/>
     <x v="4"/>
-    <n v="4165"/>
+    <n v="2979"/>
   </r>
   <r>
     <x v="0"/>
     <x v="0"/>
     <x v="4"/>
     <x v="0"/>
-    <n v="4329"/>
+    <n v="3075"/>
   </r>
   <r>
     <x v="0"/>
     <x v="0"/>
     <x v="4"/>
     <x v="1"/>
-    <n v="5047"/>
+    <n v="3068"/>
   </r>
   <r>
     <x v="0"/>
     <x v="0"/>
     <x v="4"/>
     <x v="2"/>
-    <n v="4077"/>
+    <n v="3059"/>
   </r>
   <r>
     <x v="0"/>
     <x v="0"/>
     <x v="4"/>
     <x v="3"/>
-    <n v="4087"/>
+    <n v="3081"/>
   </r>
   <r>
     <x v="0"/>
     <x v="0"/>
     <x v="4"/>
     <x v="4"/>
-    <n v="4870"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="2186"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="2281"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="2136"/>
+    <n v="3081"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1492"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="1366"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="1361"/>
   </r>
   <r>
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
     <x v="3"/>
-    <n v="2004"/>
+    <n v="1516"/>
   </r>
   <r>
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
     <x v="4"/>
-    <n v="3062"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="2118"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="2038"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="2053"/>
+    <n v="1484"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="1579"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1564"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="1558"/>
   </r>
   <r>
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
     <x v="3"/>
-    <n v="3159"/>
+    <n v="1556"/>
   </r>
   <r>
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
     <x v="4"/>
-    <n v="2046"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="2182"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="2413"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="3306"/>
+    <n v="1554"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="1614"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="1612"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1603"/>
   </r>
   <r>
     <x v="0"/>
     <x v="1"/>
     <x v="2"/>
     <x v="3"/>
-    <n v="2140"/>
+    <n v="1612"/>
   </r>
   <r>
     <x v="0"/>
     <x v="1"/>
     <x v="2"/>
     <x v="4"/>
-    <n v="2101"/>
+    <n v="1599"/>
   </r>
   <r>
     <x v="0"/>
     <x v="1"/>
     <x v="3"/>
     <x v="0"/>
-    <n v="5493"/>
+    <n v="4023"/>
   </r>
   <r>
     <x v="0"/>
     <x v="1"/>
     <x v="3"/>
     <x v="1"/>
-    <n v="5401"/>
+    <n v="4068"/>
   </r>
   <r>
     <x v="0"/>
     <x v="1"/>
     <x v="3"/>
     <x v="2"/>
-    <n v="6782"/>
+    <n v="3988"/>
   </r>
   <r>
     <x v="0"/>
     <x v="1"/>
     <x v="3"/>
     <x v="3"/>
-    <n v="5345"/>
+    <n v="4026"/>
   </r>
   <r>
     <x v="0"/>
     <x v="1"/>
     <x v="3"/>
     <x v="4"/>
-    <n v="5591"/>
+    <n v="4028"/>
   </r>
   <r>
     <x v="0"/>
     <x v="1"/>
     <x v="4"/>
     <x v="0"/>
-    <n v="5558"/>
+    <n v="4290"/>
   </r>
   <r>
     <x v="0"/>
     <x v="1"/>
     <x v="4"/>
     <x v="1"/>
-    <n v="6823"/>
+    <n v="4354"/>
   </r>
   <r>
     <x v="0"/>
     <x v="1"/>
     <x v="4"/>
     <x v="2"/>
-    <n v="5857"/>
+    <n v="4235"/>
   </r>
   <r>
     <x v="0"/>
     <x v="1"/>
     <x v="4"/>
     <x v="3"/>
-    <n v="5997"/>
+    <n v="4328"/>
   </r>
   <r>
     <x v="0"/>
     <x v="1"/>
     <x v="4"/>
     <x v="4"/>
-    <n v="5689"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="198"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="157"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="135"/>
+    <n v="4260"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="118"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="106"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="115"/>
   </r>
   <r>
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
     <x v="3"/>
-    <n v="142"/>
+    <n v="102"/>
   </r>
   <r>
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
     <x v="4"/>
-    <n v="136"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="419"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="466"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="465"/>
+    <n v="102"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="348"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="340"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="344"/>
   </r>
   <r>
     <x v="1"/>
     <x v="0"/>
     <x v="1"/>
     <x v="3"/>
-    <n v="483"/>
+    <n v="352"/>
   </r>
   <r>
     <x v="1"/>
     <x v="0"/>
     <x v="1"/>
     <x v="4"/>
-    <n v="442"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="469"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="495"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="484"/>
+    <n v="342"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="350"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="343"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="352"/>
   </r>
   <r>
     <x v="1"/>
     <x v="0"/>
     <x v="2"/>
     <x v="3"/>
-    <n v="438"/>
+    <n v="339"/>
   </r>
   <r>
     <x v="1"/>
     <x v="0"/>
     <x v="2"/>
     <x v="4"/>
-    <n v="444"/>
+    <n v="342"/>
   </r>
   <r>
     <x v="1"/>
     <x v="0"/>
     <x v="3"/>
     <x v="0"/>
-    <n v="441"/>
+    <n v="339"/>
   </r>
   <r>
     <x v="1"/>
     <x v="0"/>
     <x v="3"/>
     <x v="1"/>
-    <n v="468"/>
+    <n v="345"/>
   </r>
   <r>
     <x v="1"/>
     <x v="0"/>
     <x v="3"/>
     <x v="2"/>
-    <n v="420"/>
+    <n v="339"/>
   </r>
   <r>
     <x v="1"/>
     <x v="0"/>
     <x v="3"/>
     <x v="3"/>
-    <n v="469"/>
+    <n v="338"/>
   </r>
   <r>
     <x v="1"/>
     <x v="0"/>
     <x v="3"/>
     <x v="4"/>
-    <n v="447"/>
+    <n v="342"/>
   </r>
   <r>
     <x v="1"/>
     <x v="0"/>
     <x v="4"/>
     <x v="0"/>
-    <n v="456"/>
+    <n v="357"/>
   </r>
   <r>
     <x v="1"/>
     <x v="0"/>
     <x v="4"/>
     <x v="1"/>
-    <n v="482"/>
+    <n v="346"/>
   </r>
   <r>
     <x v="1"/>
     <x v="0"/>
     <x v="4"/>
     <x v="2"/>
-    <n v="463"/>
+    <n v="339"/>
   </r>
   <r>
     <x v="1"/>
     <x v="0"/>
     <x v="4"/>
     <x v="3"/>
-    <n v="458"/>
+    <n v="346"/>
   </r>
   <r>
     <x v="1"/>
     <x v="0"/>
     <x v="4"/>
     <x v="4"/>
-    <n v="422"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="151"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="127"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="131"/>
+    <n v="343"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="102"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="108"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="101"/>
   </r>
   <r>
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
     <x v="3"/>
-    <n v="130"/>
+    <n v="102"/>
   </r>
   <r>
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
     <x v="4"/>
-    <n v="125"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="185"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="217"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="208"/>
+    <n v="101"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="149"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="157"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="149"/>
   </r>
   <r>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
     <x v="3"/>
-    <n v="219"/>
+    <n v="148"/>
   </r>
   <r>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
     <x v="4"/>
-    <n v="201"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="215"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="236"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="206"/>
+    <n v="150"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="163"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="156"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="156"/>
   </r>
   <r>
     <x v="1"/>
     <x v="1"/>
     <x v="2"/>
     <x v="3"/>
-    <n v="201"/>
+    <n v="155"/>
   </r>
   <r>
     <x v="1"/>
     <x v="1"/>
     <x v="2"/>
     <x v="4"/>
-    <n v="196"/>
+    <n v="155"/>
   </r>
   <r>
     <x v="1"/>
     <x v="1"/>
     <x v="3"/>
     <x v="0"/>
-    <n v="560"/>
+    <n v="449"/>
   </r>
   <r>
     <x v="1"/>
     <x v="1"/>
     <x v="3"/>
     <x v="1"/>
-    <n v="632"/>
+    <n v="453"/>
   </r>
   <r>
     <x v="1"/>
     <x v="1"/>
     <x v="3"/>
     <x v="2"/>
-    <n v="613"/>
+    <n v="454"/>
   </r>
   <r>
     <x v="1"/>
     <x v="1"/>
     <x v="3"/>
     <x v="3"/>
-    <n v="631"/>
+    <n v="450"/>
   </r>
   <r>
     <x v="1"/>
     <x v="1"/>
     <x v="3"/>
     <x v="4"/>
-    <n v="621"/>
+    <n v="463"/>
   </r>
   <r>
     <x v="1"/>
     <x v="1"/>
     <x v="4"/>
     <x v="0"/>
-    <n v="649"/>
+    <n v="468"/>
   </r>
   <r>
     <x v="1"/>
     <x v="1"/>
     <x v="4"/>
     <x v="1"/>
-    <n v="622"/>
+    <n v="459"/>
   </r>
   <r>
     <x v="1"/>
     <x v="1"/>
     <x v="4"/>
     <x v="2"/>
-    <n v="611"/>
+    <n v="468"/>
   </r>
   <r>
     <x v="1"/>
     <x v="1"/>
     <x v="4"/>
     <x v="3"/>
-    <n v="595"/>
+    <n v="460"/>
   </r>
   <r>
     <x v="1"/>
     <x v="1"/>
     <x v="4"/>
     <x v="4"/>
-    <n v="595"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="477"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="539"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="474"/>
+    <n v="472"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="347"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="337"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="332"/>
   </r>
   <r>
     <x v="2"/>
     <x v="0"/>
     <x v="0"/>
     <x v="3"/>
-    <n v="450"/>
+    <n v="336"/>
   </r>
   <r>
     <x v="2"/>
     <x v="0"/>
     <x v="0"/>
     <x v="4"/>
-    <n v="540"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="1349"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="1515"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="1407"/>
+    <n v="334"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="894"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="945"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="940"/>
   </r>
   <r>
     <x v="2"/>
     <x v="0"/>
     <x v="1"/>
     <x v="3"/>
-    <n v="1525"/>
+    <n v="903"/>
   </r>
   <r>
     <x v="2"/>
     <x v="0"/>
     <x v="1"/>
     <x v="4"/>
-    <n v="1404"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="1894"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="1380"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="1349"/>
+    <n v="904"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="996"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="941"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="968"/>
   </r>
   <r>
     <x v="2"/>
     <x v="0"/>
     <x v="2"/>
     <x v="3"/>
-    <n v="1560"/>
+    <n v="988"/>
   </r>
   <r>
     <x v="2"/>
     <x v="0"/>
     <x v="2"/>
     <x v="4"/>
-    <n v="1333"/>
+    <n v="987"/>
   </r>
   <r>
     <x v="2"/>
     <x v="0"/>
     <x v="3"/>
     <x v="0"/>
-    <n v="2130"/>
+    <n v="1486"/>
   </r>
   <r>
     <x v="2"/>
     <x v="0"/>
     <x v="3"/>
     <x v="1"/>
-    <n v="2024"/>
+    <n v="1460"/>
   </r>
   <r>
     <x v="2"/>
     <x v="0"/>
     <x v="3"/>
     <x v="2"/>
-    <n v="2041"/>
+    <n v="1475"/>
   </r>
   <r>
     <x v="2"/>
     <x v="0"/>
     <x v="3"/>
     <x v="3"/>
-    <n v="2039"/>
+    <n v="1474"/>
   </r>
   <r>
     <x v="2"/>
     <x v="0"/>
     <x v="3"/>
     <x v="4"/>
-    <n v="2041"/>
+    <n v="1485"/>
   </r>
   <r>
     <x v="2"/>
     <x v="0"/>
     <x v="4"/>
     <x v="0"/>
-    <n v="2061"/>
+    <n v="1505"/>
   </r>
   <r>
     <x v="2"/>
     <x v="0"/>
     <x v="4"/>
     <x v="1"/>
-    <n v="2132"/>
+    <n v="1472"/>
   </r>
   <r>
     <x v="2"/>
     <x v="0"/>
     <x v="4"/>
     <x v="2"/>
-    <n v="2091"/>
+    <n v="1492"/>
   </r>
   <r>
     <x v="2"/>
     <x v="0"/>
     <x v="4"/>
     <x v="3"/>
-    <n v="2050"/>
+    <n v="1464"/>
   </r>
   <r>
     <x v="2"/>
     <x v="0"/>
     <x v="4"/>
     <x v="4"/>
-    <n v="2129"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="498"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="448"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="494"/>
+    <n v="1484"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="347"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="300"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="302"/>
   </r>
   <r>
     <x v="2"/>
     <x v="1"/>
     <x v="0"/>
     <x v="3"/>
-    <n v="502"/>
+    <n v="301"/>
   </r>
   <r>
     <x v="2"/>
     <x v="1"/>
     <x v="0"/>
     <x v="4"/>
-    <n v="394"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="623"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="562"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="594"/>
+    <n v="299"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="432"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="478"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="430"/>
   </r>
   <r>
     <x v="2"/>
     <x v="1"/>
     <x v="1"/>
     <x v="3"/>
-    <n v="654"/>
+    <n v="431"/>
   </r>
   <r>
     <x v="2"/>
     <x v="1"/>
     <x v="1"/>
     <x v="4"/>
-    <n v="706"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="627"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="624"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="566"/>
+    <n v="430"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="432"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="484"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="439"/>
   </r>
   <r>
     <x v="2"/>
     <x v="1"/>
     <x v="2"/>
     <x v="3"/>
-    <n v="786"/>
+    <n v="436"/>
   </r>
   <r>
     <x v="2"/>
     <x v="1"/>
     <x v="2"/>
     <x v="4"/>
-    <n v="744"/>
+    <n v="435"/>
   </r>
   <r>
     <x v="2"/>
     <x v="1"/>
     <x v="3"/>
     <x v="0"/>
-    <n v="2592"/>
+    <n v="1751"/>
   </r>
   <r>
     <x v="2"/>
     <x v="1"/>
     <x v="3"/>
     <x v="1"/>
-    <n v="2587"/>
+    <n v="1750"/>
   </r>
   <r>
     <x v="2"/>
     <x v="1"/>
     <x v="3"/>
     <x v="2"/>
-    <n v="2436"/>
+    <n v="1720"/>
   </r>
   <r>
     <x v="2"/>
     <x v="1"/>
     <x v="3"/>
     <x v="3"/>
-    <n v="2452"/>
+    <n v="1733"/>
   </r>
   <r>
     <x v="2"/>
     <x v="1"/>
     <x v="3"/>
     <x v="4"/>
-    <n v="2412"/>
+    <n v="1707"/>
   </r>
   <r>
     <x v="2"/>
     <x v="1"/>
     <x v="4"/>
     <x v="0"/>
-    <n v="2579"/>
+    <n v="1741"/>
   </r>
   <r>
     <x v="2"/>
     <x v="1"/>
     <x v="4"/>
     <x v="1"/>
-    <n v="2662"/>
+    <n v="1726"/>
   </r>
   <r>
     <x v="2"/>
     <x v="1"/>
     <x v="4"/>
     <x v="2"/>
-    <n v="2504"/>
+    <n v="1745"/>
   </r>
   <r>
     <x v="2"/>
     <x v="1"/>
     <x v="4"/>
     <x v="3"/>
-    <n v="2510"/>
+    <n v="1740"/>
   </r>
   <r>
     <x v="2"/>
     <x v="1"/>
     <x v="4"/>
     <x v="4"/>
-    <n v="2496"/>
+    <n v="1732"/>
   </r>
   <r>
     <x v="3"/>
@@ -4244,7 +4252,142 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="4" minRefreshableVersion="3" showDrill="0" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="4" minRefreshableVersion="3" showDrill="0" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="P3:V10" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="5">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0" defaultSubtotal="0">
+      <items count="2">
+        <item x="1"/>
+        <item x="0"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="11">
+        <item h="1" x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="1"/>
+    <field x="0"/>
+  </colFields>
+  <colItems count="6">
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="3" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Standardabweichung (Stichprobe) von RuntimeMillis" fld="4" subtotal="stdDev" baseField="2" baseItem="0" numFmtId="1"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="32">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="31">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="30">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="4" minRefreshableVersion="3" showDrill="0" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="H3:N10" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField axis="axisCol" showAll="0">
@@ -4341,7 +4484,7 @@
     <dataField name="Mittelwert von RuntimeMillis" fld="4" subtotal="average" baseField="2" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="39">
+    <format dxfId="33">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -4360,8 +4503,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="4" minRefreshableVersion="3" showDrill="0" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="4" minRefreshableVersion="3" showDrill="0" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="P15:V22" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField axis="axisCol" showAll="0">
@@ -4473,10 +4616,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="37">
+    <format dxfId="35">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="38">
+    <format dxfId="34">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -4495,8 +4638,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="4" minRefreshableVersion="3" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="4" minRefreshableVersion="3" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="H15:N22" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField axis="axisCol" showAll="0">
@@ -4593,7 +4736,7 @@
     <dataField name="Minimum von RuntimeMillis" fld="4" subtotal="min" baseField="2" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="33">
+    <format dxfId="39">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -4608,10 +4751,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="34">
+    <format dxfId="38">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="35">
+    <format dxfId="37">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -4630,46 +4773,50 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="4" minRefreshableVersion="3" showDrill="0" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="P3:V10" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="4" minRefreshableVersion="3" showDrill="0" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="H3:N10" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField axis="axisCol" showAll="0">
-      <items count="4">
+      <items count="5">
         <item x="2"/>
         <item x="0"/>
         <item x="1"/>
+        <item x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisCol" showAll="0" defaultSubtotal="0">
-      <items count="2">
+      <items count="3">
         <item x="1"/>
         <item x="0"/>
+        <item x="2"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="6">
+      <items count="7">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
+        <item x="5"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="11">
+      <items count="12">
         <item h="1" x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
+        <item m="1" x="6"/>
+        <item m="1" x="7"/>
+        <item m="1" x="8"/>
+        <item m="1" x="9"/>
+        <item m="1" x="10"/>
+        <item h="1" x="5"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -4725,33 +4872,25 @@
     <pageField fld="3" hier="-1"/>
   </pageFields>
   <dataFields count="1">
-    <dataField name="Standardabweichung (Stichprobe) von RuntimeMillis" fld="4" subtotal="stdDev" baseField="2" baseItem="0" numFmtId="1"/>
+    <dataField name="Mittelwert von RuntimeMillis" fld="4" subtotal="average" baseField="2" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="30">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="3">
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
+    <format dxfId="17">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
           <reference field="2" count="1">
             <x v="0"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="31">
+    <format dxfId="16">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="32">
+    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
-          <reference field="2" count="1">
-            <x v="0"/>
-          </reference>
+          <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
@@ -4765,8 +4904,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="101" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="4" minRefreshableVersion="3" showDrill="0" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="4" minRefreshableVersion="3" showDrill="0" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="P3:V10" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField axis="axisCol" showAll="0">
@@ -4867,7 +5006,7 @@
     <dataField name="Standardabweichung (Stichprobe) von RuntimeMillis" fld="4" subtotal="stdDev" baseField="2" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="5">
-    <format dxfId="25">
+    <format dxfId="22">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -4882,10 +5021,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="26">
+    <format dxfId="21">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -4894,10 +5033,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="28">
+    <format dxfId="19">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="29">
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
@@ -4914,8 +5053,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="101" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="4" minRefreshableVersion="3" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="4" minRefreshableVersion="3" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="H15:N22" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField axis="axisCol" showAll="0">
@@ -5016,7 +5155,7 @@
     <dataField name="Minimum von RuntimeMillis" fld="4" subtotal="min" baseField="2" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="22">
+    <format dxfId="25">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -5031,10 +5170,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="23">
+    <format dxfId="24">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="24">
+    <format dxfId="23">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -5053,8 +5192,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="101" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="4" minRefreshableVersion="3" showDrill="0" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="4" minRefreshableVersion="3" showDrill="0" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="P15:V22" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField axis="axisCol" showAll="0">
@@ -5155,7 +5294,7 @@
     <dataField name="Maximum von RuntimeMillis" fld="4" subtotal="max" baseField="2" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="18">
+    <format dxfId="29">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -5170,10 +5309,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="19">
+    <format dxfId="28">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="20">
+    <format dxfId="27">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -5182,139 +5321,8 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="21">
+    <format dxfId="26">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="101" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="4" minRefreshableVersion="3" showDrill="0" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="H3:N10" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="5">
-    <pivotField axis="axisCol" showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0" defaultSubtotal="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="12">
-        <item h="1" x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item m="1" x="8"/>
-        <item m="1" x="9"/>
-        <item m="1" x="10"/>
-        <item h="1" x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colFields count="2">
-    <field x="1"/>
-    <field x="0"/>
-  </colFields>
-  <colItems count="6">
-    <i>
-      <x/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="1"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="3" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Mittelwert von RuntimeMillis" fld="4" subtotal="average" baseField="2" baseItem="0" numFmtId="1"/>
-  </dataFields>
-  <formats count="3">
-    <format dxfId="15">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="2" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="16">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="17">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="2" count="0"/>
-        </references>
-      </pivotArea>
     </format>
   </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
@@ -11671,8 +11679,8 @@
   </sheetPr>
   <dimension ref="A1:AN151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X46" sqref="X46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11747,7 +11755,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="9">
-        <v>2937</v>
+        <v>2054</v>
       </c>
       <c r="X2" s="4"/>
       <c r="Y2" s="4"/>
@@ -11780,7 +11788,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="9">
-        <v>1686</v>
+        <v>1195</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>15</v>
@@ -11819,7 +11827,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="9">
-        <v>2642</v>
+        <v>1191</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>12</v>
@@ -11864,7 +11872,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="9">
-        <v>1671</v>
+        <v>1937</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>14</v>
@@ -11933,49 +11941,49 @@
         <v>5</v>
       </c>
       <c r="E6" s="9">
-        <v>1911</v>
+        <v>1278</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>7</v>
       </c>
       <c r="I6" s="5">
-        <v>459.5</v>
+        <v>300.5</v>
       </c>
       <c r="J6" s="5">
-        <v>2370.75</v>
+        <v>1431.75</v>
       </c>
       <c r="K6" s="5">
-        <v>128.25</v>
+        <v>103</v>
       </c>
       <c r="L6" s="5">
-        <v>500.75</v>
+        <v>334.75</v>
       </c>
       <c r="M6" s="5">
-        <v>1977.5</v>
+        <v>1400.25</v>
       </c>
       <c r="N6" s="5">
-        <v>142.5</v>
+        <v>106.25</v>
       </c>
       <c r="P6" s="8" t="s">
         <v>7</v>
       </c>
       <c r="Q6" s="5">
-        <v>49.729267036625423</v>
+        <v>1.2909944487358056</v>
       </c>
       <c r="R6" s="5">
-        <v>474.51545461308916</v>
+        <v>79.909845033846324</v>
       </c>
       <c r="S6" s="5">
-        <v>2.753785273643051</v>
+        <v>3.3665016461206929</v>
       </c>
       <c r="T6" s="5">
-        <v>45.806658904574128</v>
+        <v>2.2173557826083452</v>
       </c>
       <c r="U6" s="5">
-        <v>456.39785275568511</v>
+        <v>360.07348786972176</v>
       </c>
       <c r="V6" s="5">
-        <v>10.148891565092219</v>
+        <v>6.1305247192498404</v>
       </c>
       <c r="X6" s="5"/>
       <c r="Y6" s="4"/>
@@ -12009,49 +12017,49 @@
         <v>1</v>
       </c>
       <c r="E7" s="9">
-        <v>3274</v>
+        <v>2419</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>8</v>
       </c>
       <c r="I7" s="5">
-        <v>629</v>
+        <v>442.25</v>
       </c>
       <c r="J7" s="5">
-        <v>2324</v>
+        <v>1558</v>
       </c>
       <c r="K7" s="5">
-        <v>211.25</v>
+        <v>151</v>
       </c>
       <c r="L7" s="5">
-        <v>1462.75</v>
+        <v>923</v>
       </c>
       <c r="M7" s="5">
-        <v>3572.75</v>
+        <v>2467</v>
       </c>
       <c r="N7" s="5">
-        <v>464</v>
+        <v>344.5</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>8</v>
       </c>
       <c r="Q7" s="5">
-        <v>63.947895456639806</v>
+        <v>23.837994882120434</v>
       </c>
       <c r="R7" s="5">
-        <v>556.7003981796073</v>
+        <v>4.3204937989385739</v>
       </c>
       <c r="S7" s="5">
-        <v>8.3416625041614658</v>
+        <v>4.0824829046386304</v>
       </c>
       <c r="T7" s="5">
-        <v>66.243867640710718</v>
+        <v>22.612680808195506</v>
       </c>
       <c r="U7" s="5">
-        <v>571.95884175932338</v>
+        <v>325.56310192239744</v>
       </c>
       <c r="V7" s="5">
-        <v>16.832508230603462</v>
+        <v>5.259911279353167</v>
       </c>
       <c r="X7" s="5"/>
       <c r="Y7" s="4"/>
@@ -12085,49 +12093,49 @@
         <v>2</v>
       </c>
       <c r="E8" s="9">
-        <v>4192</v>
+        <v>2396</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>9</v>
       </c>
       <c r="I8" s="5">
-        <v>680</v>
+        <v>448.5</v>
       </c>
       <c r="J8" s="5">
-        <v>2490</v>
+        <v>1606.5</v>
       </c>
       <c r="K8" s="5">
-        <v>209.75</v>
+        <v>155.5</v>
       </c>
       <c r="L8" s="5">
-        <v>1405.5</v>
+        <v>971</v>
       </c>
       <c r="M8" s="5">
-        <v>3451.75</v>
+        <v>2332.5</v>
       </c>
       <c r="N8" s="5">
-        <v>465.25</v>
+        <v>344</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>9</v>
       </c>
       <c r="Q8" s="5">
-        <v>102.41093691593686</v>
+        <v>23.727621035409346</v>
       </c>
       <c r="R8" s="5">
-        <v>561.42853507815221</v>
+        <v>6.5574385243020004</v>
       </c>
       <c r="S8" s="5">
-        <v>17.969882210706523</v>
+        <v>0.57735026918962573</v>
       </c>
       <c r="T8" s="5">
-        <v>104.83161100863931</v>
+        <v>22.015146301277824</v>
       </c>
       <c r="U8" s="5">
-        <v>549.43690872261823</v>
+        <v>42.304452090373026</v>
       </c>
       <c r="V8" s="5">
-        <v>28.464890654980568</v>
+        <v>5.5976185412488881</v>
       </c>
       <c r="X8" s="5"/>
       <c r="Y8" s="4"/>
@@ -12161,49 +12169,49 @@
         <v>3</v>
       </c>
       <c r="E9" s="9">
-        <v>3218</v>
+        <v>2945</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>10</v>
       </c>
       <c r="I9" s="5">
-        <v>2471.75</v>
+        <v>1727.5</v>
       </c>
       <c r="J9" s="5">
-        <v>5779.75</v>
+        <v>4027.5</v>
       </c>
       <c r="K9" s="5">
-        <v>624.25</v>
+        <v>455</v>
       </c>
       <c r="L9" s="5">
-        <v>2036.25</v>
+        <v>1473.5</v>
       </c>
       <c r="M9" s="5">
-        <v>4281.75</v>
+        <v>2983</v>
       </c>
       <c r="N9" s="5">
-        <v>451</v>
+        <v>341</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q9" s="5">
-        <v>78.572153676307821</v>
+        <v>18.375708603116962</v>
       </c>
       <c r="R9" s="5">
-        <v>676.40982399725681</v>
+        <v>32.67516896156264</v>
       </c>
       <c r="S9" s="5">
-        <v>8.9953691790090904</v>
+        <v>5.5976185412488881</v>
       </c>
       <c r="T9" s="5">
-        <v>8.2209083034256825</v>
+        <v>10.279429296739517</v>
       </c>
       <c r="U9" s="5">
-        <v>449.17804561962583</v>
+        <v>8.9069261439249239</v>
       </c>
       <c r="V9" s="5">
-        <v>23.021728866442675</v>
+        <v>3.1622776601683795</v>
       </c>
       <c r="X9" s="5"/>
       <c r="Y9" s="4"/>
@@ -12237,49 +12245,49 @@
         <v>4</v>
       </c>
       <c r="E10" s="9">
-        <v>3908</v>
+        <v>2235</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="I10" s="5">
-        <v>2543</v>
+        <v>1735.75</v>
       </c>
       <c r="J10" s="5">
-        <v>6091.5</v>
+        <v>4294.25</v>
       </c>
       <c r="K10" s="5">
-        <v>605.75</v>
+        <v>464.75</v>
       </c>
       <c r="L10" s="5">
-        <v>2100.5</v>
+        <v>1478</v>
       </c>
       <c r="M10" s="5">
-        <v>4520.25</v>
+        <v>3072.25</v>
       </c>
       <c r="N10" s="5">
-        <v>456.25</v>
+        <v>343.5</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="5">
-        <v>79.540346156316588</v>
+        <v>8.421203397773187</v>
       </c>
       <c r="R10" s="5">
-        <v>503.65960727459571</v>
+        <v>55.954594687716813</v>
       </c>
       <c r="S10" s="5">
-        <v>13.200378782444085</v>
+        <v>6.2915286960589585</v>
       </c>
       <c r="T10" s="5">
-        <v>38.492423496925561</v>
+        <v>12.436505404118419</v>
       </c>
       <c r="U10" s="5">
-        <v>511.19687988093199</v>
+        <v>10.750968948580091</v>
       </c>
       <c r="V10" s="5">
-        <v>25.064915718988566</v>
+        <v>3.3166247903553998</v>
       </c>
       <c r="X10" s="5"/>
       <c r="Y10" s="4"/>
@@ -12313,7 +12321,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="9">
-        <v>2973</v>
+        <v>2292</v>
       </c>
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
@@ -12346,7 +12354,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="9">
-        <v>4386</v>
+        <v>2289</v>
       </c>
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
@@ -12379,7 +12387,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="9">
-        <v>3205</v>
+        <v>2337</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>3</v>
@@ -12424,7 +12432,7 @@
         <v>3</v>
       </c>
       <c r="E14" s="9">
-        <v>4275</v>
+        <v>2336</v>
       </c>
       <c r="X14" s="5"/>
       <c r="Y14" s="4"/>
@@ -12457,7 +12465,7 @@
         <v>4</v>
       </c>
       <c r="E15" s="9">
-        <v>3143</v>
+        <v>2380</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>17</v>
@@ -12496,7 +12504,7 @@
         <v>5</v>
       </c>
       <c r="E16" s="9">
-        <v>3184</v>
+        <v>2277</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>12</v>
@@ -12541,7 +12549,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="9">
-        <v>5040</v>
+        <v>2992</v>
       </c>
       <c r="I17" s="9" t="s">
         <v>14</v>
@@ -12610,49 +12618,49 @@
         <v>2</v>
       </c>
       <c r="E18" s="9">
-        <v>3890</v>
+        <v>2996</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I18" s="3">
-        <v>394</v>
+        <v>299</v>
       </c>
       <c r="J18" s="3">
-        <v>2004</v>
+        <v>1361</v>
       </c>
       <c r="K18" s="3">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="L18" s="3">
-        <v>450</v>
+        <v>332</v>
       </c>
       <c r="M18" s="3">
-        <v>1671</v>
+        <v>1191</v>
       </c>
       <c r="N18" s="3">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="P18" s="6" t="s">
         <v>7</v>
       </c>
       <c r="Q18" s="5">
-        <v>502</v>
+        <v>302</v>
       </c>
       <c r="R18" s="5">
-        <v>3062</v>
+        <v>1516</v>
       </c>
       <c r="S18" s="5">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="T18" s="5">
-        <v>540</v>
+        <v>337</v>
       </c>
       <c r="U18" s="5">
-        <v>2642</v>
+        <v>1937</v>
       </c>
       <c r="V18" s="5">
-        <v>157</v>
+        <v>115</v>
       </c>
       <c r="X18" s="5"/>
       <c r="Y18" s="4"/>
@@ -12686,49 +12694,49 @@
         <v>3</v>
       </c>
       <c r="E19" s="9">
-        <v>4143</v>
+        <v>2976</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I19" s="3">
-        <v>562</v>
+        <v>430</v>
       </c>
       <c r="J19" s="3">
-        <v>2038</v>
+        <v>1554</v>
       </c>
       <c r="K19" s="3">
-        <v>201</v>
+        <v>148</v>
       </c>
       <c r="L19" s="3">
-        <v>1404</v>
+        <v>903</v>
       </c>
       <c r="M19" s="3">
-        <v>2973</v>
+        <v>2235</v>
       </c>
       <c r="N19" s="3">
-        <v>442</v>
+        <v>340</v>
       </c>
       <c r="P19" s="2" t="s">
         <v>8</v>
       </c>
       <c r="Q19" s="5">
-        <v>706</v>
+        <v>478</v>
       </c>
       <c r="R19" s="5">
-        <v>3159</v>
+        <v>1564</v>
       </c>
       <c r="S19" s="5">
-        <v>219</v>
+        <v>157</v>
       </c>
       <c r="T19" s="5">
-        <v>1525</v>
+        <v>945</v>
       </c>
       <c r="U19" s="5">
-        <v>4192</v>
+        <v>2945</v>
       </c>
       <c r="V19" s="5">
-        <v>483</v>
+        <v>352</v>
       </c>
       <c r="X19" s="5"/>
       <c r="Y19" s="4"/>
@@ -12762,49 +12770,49 @@
         <v>4</v>
       </c>
       <c r="E20" s="9">
-        <v>4929</v>
+        <v>2981</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I20" s="3">
-        <v>566</v>
+        <v>435</v>
       </c>
       <c r="J20" s="3">
-        <v>2101</v>
+        <v>1599</v>
       </c>
       <c r="K20" s="3">
-        <v>196</v>
+        <v>155</v>
       </c>
       <c r="L20" s="3">
-        <v>1333</v>
+        <v>941</v>
       </c>
       <c r="M20" s="3">
-        <v>3143</v>
+        <v>2277</v>
       </c>
       <c r="N20" s="3">
-        <v>438</v>
+        <v>339</v>
       </c>
       <c r="P20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="Q20" s="5">
-        <v>786</v>
+        <v>484</v>
       </c>
       <c r="R20" s="5">
-        <v>3306</v>
+        <v>1612</v>
       </c>
       <c r="S20" s="5">
-        <v>236</v>
+        <v>156</v>
       </c>
       <c r="T20" s="5">
-        <v>1560</v>
+        <v>988</v>
       </c>
       <c r="U20" s="5">
-        <v>4275</v>
+        <v>2380</v>
       </c>
       <c r="V20" s="5">
-        <v>495</v>
+        <v>352</v>
       </c>
       <c r="X20" s="3"/>
       <c r="AE20" s="3"/>
@@ -12832,49 +12840,49 @@
         <v>5</v>
       </c>
       <c r="E21" s="9">
-        <v>4165</v>
+        <v>2979</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I21" s="3">
-        <v>2412</v>
+        <v>1707</v>
       </c>
       <c r="J21" s="3">
-        <v>5345</v>
+        <v>3988</v>
       </c>
       <c r="K21" s="3">
-        <v>613</v>
+        <v>450</v>
       </c>
       <c r="L21" s="3">
-        <v>2024</v>
+        <v>1460</v>
       </c>
       <c r="M21" s="3">
-        <v>3890</v>
+        <v>2976</v>
       </c>
       <c r="N21" s="3">
-        <v>420</v>
+        <v>338</v>
       </c>
       <c r="P21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="Q21" s="5">
-        <v>2587</v>
+        <v>1750</v>
       </c>
       <c r="R21" s="5">
-        <v>6782</v>
+        <v>4068</v>
       </c>
       <c r="S21" s="5">
-        <v>632</v>
+        <v>463</v>
       </c>
       <c r="T21" s="5">
-        <v>2041</v>
+        <v>1485</v>
       </c>
       <c r="U21" s="5">
-        <v>4929</v>
+        <v>2996</v>
       </c>
       <c r="V21" s="5">
-        <v>469</v>
+        <v>345</v>
       </c>
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
@@ -12908,49 +12916,49 @@
         <v>1</v>
       </c>
       <c r="E22" s="9">
-        <v>4329</v>
+        <v>3075</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I22" s="3">
-        <v>2496</v>
+        <v>1726</v>
       </c>
       <c r="J22" s="3">
-        <v>5689</v>
+        <v>4235</v>
       </c>
       <c r="K22" s="3">
-        <v>595</v>
+        <v>459</v>
       </c>
       <c r="L22" s="3">
-        <v>2050</v>
+        <v>1464</v>
       </c>
       <c r="M22" s="3">
-        <v>4077</v>
+        <v>3059</v>
       </c>
       <c r="N22" s="3">
-        <v>422</v>
+        <v>339</v>
       </c>
       <c r="P22" s="2" t="s">
         <v>11</v>
       </c>
       <c r="Q22" s="5">
-        <v>2662</v>
+        <v>1745</v>
       </c>
       <c r="R22" s="5">
-        <v>6823</v>
+        <v>4354</v>
       </c>
       <c r="S22" s="5">
-        <v>622</v>
+        <v>472</v>
       </c>
       <c r="T22" s="5">
-        <v>2132</v>
+        <v>1492</v>
       </c>
       <c r="U22" s="5">
-        <v>5047</v>
+        <v>3081</v>
       </c>
       <c r="V22" s="5">
-        <v>482</v>
+        <v>346</v>
       </c>
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
@@ -12984,7 +12992,7 @@
         <v>2</v>
       </c>
       <c r="E23" s="9">
-        <v>5047</v>
+        <v>3068</v>
       </c>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.25">
@@ -13001,7 +13009,7 @@
         <v>3</v>
       </c>
       <c r="E24" s="9">
-        <v>4077</v>
+        <v>3059</v>
       </c>
       <c r="H24" s="19" t="s">
         <v>15</v>
@@ -13012,6 +13020,15 @@
       <c r="L24" s="19"/>
       <c r="M24" s="19"/>
       <c r="N24" s="19"/>
+      <c r="P24" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
+      <c r="V24" s="19"/>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
@@ -13027,7 +13044,7 @@
         <v>4</v>
       </c>
       <c r="E25" s="9">
-        <v>4087</v>
+        <v>3081</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19" t="s">
@@ -13040,6 +13057,17 @@
       </c>
       <c r="M25" s="19"/>
       <c r="N25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U25" s="19"/>
+      <c r="V25" s="19"/>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
@@ -13055,7 +13083,7 @@
         <v>5</v>
       </c>
       <c r="E26" s="9">
-        <v>4870</v>
+        <v>3081</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19" t="s">
@@ -13076,6 +13104,25 @@
       <c r="N26" s="19" t="s">
         <v>13</v>
       </c>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="R26" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="S26" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="T26" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="U26" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="V26" s="19" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
@@ -13091,27 +13138,48 @@
         <v>1</v>
       </c>
       <c r="E27" s="9">
-        <v>2186</v>
+        <v>1492</v>
       </c>
       <c r="H27" s="19" t="s">
         <v>7</v>
       </c>
       <c r="I27" s="5">
+        <v>300.5</v>
+      </c>
+      <c r="J27" s="5">
+        <v>1431.75</v>
+      </c>
+      <c r="K27" s="5">
+        <v>103</v>
+      </c>
+      <c r="L27" s="5">
+        <v>334.75</v>
+      </c>
+      <c r="M27" s="5">
+        <v>1400.25</v>
+      </c>
+      <c r="N27" s="5">
+        <v>106.25</v>
+      </c>
+      <c r="P27" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q27" s="5">
         <v>459.5</v>
       </c>
-      <c r="J27" s="5">
+      <c r="R27" s="5">
         <v>2370.75</v>
       </c>
-      <c r="K27" s="5">
+      <c r="S27" s="5">
         <v>128.25</v>
       </c>
-      <c r="L27" s="5">
+      <c r="T27" s="5">
         <v>500.75</v>
       </c>
-      <c r="M27" s="5">
+      <c r="U27" s="5">
         <v>1977.5</v>
       </c>
-      <c r="N27" s="5">
+      <c r="V27" s="5">
         <v>142.5</v>
       </c>
     </row>
@@ -13129,27 +13197,48 @@
         <v>2</v>
       </c>
       <c r="E28" s="9">
-        <v>2281</v>
+        <v>1366</v>
       </c>
       <c r="H28" s="19" t="s">
         <v>8</v>
       </c>
       <c r="I28" s="5">
+        <v>442.25</v>
+      </c>
+      <c r="J28" s="5">
+        <v>1558</v>
+      </c>
+      <c r="K28" s="5">
+        <v>151</v>
+      </c>
+      <c r="L28" s="5">
+        <v>923</v>
+      </c>
+      <c r="M28" s="5">
+        <v>2467</v>
+      </c>
+      <c r="N28" s="5">
+        <v>344.5</v>
+      </c>
+      <c r="P28" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q28" s="5">
         <v>629</v>
       </c>
-      <c r="J28" s="5">
+      <c r="R28" s="5">
         <v>2324</v>
       </c>
-      <c r="K28" s="5">
+      <c r="S28" s="5">
         <v>211.25</v>
       </c>
-      <c r="L28" s="5">
+      <c r="T28" s="5">
         <v>1462.75</v>
       </c>
-      <c r="M28" s="5">
+      <c r="U28" s="5">
         <v>3572.75</v>
       </c>
-      <c r="N28" s="5">
+      <c r="V28" s="5">
         <v>464</v>
       </c>
     </row>
@@ -13167,27 +13256,48 @@
         <v>3</v>
       </c>
       <c r="E29" s="9">
-        <v>2136</v>
+        <v>1361</v>
       </c>
       <c r="H29" s="19" t="s">
         <v>9</v>
       </c>
       <c r="I29" s="5">
+        <v>448.5</v>
+      </c>
+      <c r="J29" s="5">
+        <v>1606.5</v>
+      </c>
+      <c r="K29" s="5">
+        <v>155.5</v>
+      </c>
+      <c r="L29" s="5">
+        <v>971</v>
+      </c>
+      <c r="M29" s="5">
+        <v>2332.5</v>
+      </c>
+      <c r="N29" s="5">
+        <v>344</v>
+      </c>
+      <c r="P29" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q29" s="5">
         <v>680</v>
       </c>
-      <c r="J29" s="5">
+      <c r="R29" s="5">
         <v>2490</v>
       </c>
-      <c r="K29" s="5">
+      <c r="S29" s="5">
         <v>209.75</v>
       </c>
-      <c r="L29" s="5">
+      <c r="T29" s="5">
         <v>1405.5</v>
       </c>
-      <c r="M29" s="5">
+      <c r="U29" s="5">
         <v>3451.75</v>
       </c>
-      <c r="N29" s="5">
+      <c r="V29" s="5">
         <v>465.25</v>
       </c>
     </row>
@@ -13205,27 +13315,48 @@
         <v>4</v>
       </c>
       <c r="E30" s="9">
-        <v>2004</v>
+        <v>1516</v>
       </c>
       <c r="H30" s="19" t="s">
         <v>10</v>
       </c>
       <c r="I30" s="5">
+        <v>1727.5</v>
+      </c>
+      <c r="J30" s="5">
+        <v>4027.5</v>
+      </c>
+      <c r="K30" s="5">
+        <v>455</v>
+      </c>
+      <c r="L30" s="5">
+        <v>1473.5</v>
+      </c>
+      <c r="M30" s="5">
+        <v>2983</v>
+      </c>
+      <c r="N30" s="5">
+        <v>341</v>
+      </c>
+      <c r="P30" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q30" s="5">
         <v>2471.75</v>
       </c>
-      <c r="J30" s="5">
+      <c r="R30" s="5">
         <v>5779.75</v>
       </c>
-      <c r="K30" s="5">
+      <c r="S30" s="5">
         <v>624.25</v>
       </c>
-      <c r="L30" s="5">
+      <c r="T30" s="5">
         <v>2036.25</v>
       </c>
-      <c r="M30" s="5">
+      <c r="U30" s="5">
         <v>4281.75</v>
       </c>
-      <c r="N30" s="5">
+      <c r="V30" s="5">
         <v>451</v>
       </c>
     </row>
@@ -13243,27 +13374,48 @@
         <v>5</v>
       </c>
       <c r="E31" s="9">
-        <v>3062</v>
+        <v>1484</v>
       </c>
       <c r="H31" s="19" t="s">
         <v>11</v>
       </c>
       <c r="I31" s="5">
+        <v>1735.75</v>
+      </c>
+      <c r="J31" s="5">
+        <v>4294.25</v>
+      </c>
+      <c r="K31" s="5">
+        <v>464.75</v>
+      </c>
+      <c r="L31" s="5">
+        <v>1478</v>
+      </c>
+      <c r="M31" s="5">
+        <v>3072.25</v>
+      </c>
+      <c r="N31" s="5">
+        <v>343.5</v>
+      </c>
+      <c r="P31" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q31" s="5">
         <v>2543</v>
       </c>
-      <c r="J31" s="5">
+      <c r="R31" s="5">
         <v>6091.5</v>
       </c>
-      <c r="K31" s="5">
+      <c r="S31" s="5">
         <v>605.75</v>
       </c>
-      <c r="L31" s="5">
+      <c r="T31" s="5">
         <v>2100.5</v>
       </c>
-      <c r="M31" s="5">
+      <c r="U31" s="5">
         <v>4520.25</v>
       </c>
-      <c r="N31" s="5">
+      <c r="V31" s="5">
         <v>456.25</v>
       </c>
     </row>
@@ -13281,7 +13433,7 @@
         <v>1</v>
       </c>
       <c r="E32" s="9">
-        <v>2118</v>
+        <v>1579</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -13291,7 +13443,7 @@
       <c r="M32" s="19"/>
       <c r="N32" s="19"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>5</v>
       </c>
@@ -13305,37 +13457,37 @@
         <v>2</v>
       </c>
       <c r="E33" s="9">
-        <v>2038</v>
+        <v>1564</v>
       </c>
       <c r="H33" s="19" t="s">
         <v>20</v>
       </c>
       <c r="I33" s="19">
         <f>MAX(I27:I31)</f>
-        <v>2543</v>
+        <v>1735.75</v>
       </c>
       <c r="J33" s="19">
         <f t="shared" ref="J33:N33" si="0">MAX(J27:J31)</f>
-        <v>6091.5</v>
+        <v>4294.25</v>
       </c>
       <c r="K33" s="19">
         <f t="shared" si="0"/>
-        <v>624.25</v>
+        <v>464.75</v>
       </c>
       <c r="L33" s="19">
         <f t="shared" si="0"/>
-        <v>2100.5</v>
+        <v>1478</v>
       </c>
       <c r="M33" s="19">
         <f t="shared" si="0"/>
-        <v>4520.25</v>
+        <v>3072.25</v>
       </c>
       <c r="N33" s="19">
         <f t="shared" si="0"/>
-        <v>465.25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+        <v>344.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>5</v>
       </c>
@@ -13349,10 +13501,10 @@
         <v>3</v>
       </c>
       <c r="E34" s="9">
-        <v>2053</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>5</v>
       </c>
@@ -13366,7 +13518,7 @@
         <v>4</v>
       </c>
       <c r="E35" s="9">
-        <v>3159</v>
+        <v>1556</v>
       </c>
       <c r="H35" s="9" t="s">
         <v>21</v>
@@ -13377,8 +13529,11 @@
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="P35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>5</v>
       </c>
@@ -13392,7 +13547,7 @@
         <v>5</v>
       </c>
       <c r="E36" s="9">
-        <v>2046</v>
+        <v>1554</v>
       </c>
       <c r="H36" s="10"/>
       <c r="I36" s="11" t="s">
@@ -13405,16 +13560,21 @@
       </c>
       <c r="M36" s="11"/>
       <c r="N36" s="12"/>
+      <c r="Q36" t="s">
+        <v>12</v>
+      </c>
       <c r="R36" s="9"/>
       <c r="S36" s="9"/>
-      <c r="T36" s="9"/>
+      <c r="T36" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="U36" s="9"/>
       <c r="V36" s="9"/>
       <c r="W36" s="9"/>
       <c r="X36" s="9"/>
       <c r="Y36" s="9"/>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>5</v>
       </c>
@@ -13428,7 +13588,7 @@
         <v>1</v>
       </c>
       <c r="E37" s="9">
-        <v>2182</v>
+        <v>1614</v>
       </c>
       <c r="H37" s="13"/>
       <c r="I37" s="14" t="s">
@@ -13449,16 +13609,29 @@
       <c r="N37" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="R37" s="9"/>
-      <c r="S37" s="9"/>
-      <c r="T37" s="9"/>
-      <c r="U37" s="9"/>
-      <c r="V37" s="9"/>
+      <c r="Q37" t="s">
+        <v>14</v>
+      </c>
+      <c r="R37" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="S37" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="T37" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="U37" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="V37" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="W37" s="9"/>
       <c r="X37" s="9"/>
       <c r="Y37" s="9"/>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>5</v>
       </c>
@@ -13472,45 +13645,66 @@
         <v>2</v>
       </c>
       <c r="E38" s="9">
-        <v>2413</v>
+        <v>1612</v>
       </c>
       <c r="H38" s="16" t="s">
         <v>7</v>
       </c>
       <c r="I38" s="20">
         <f>I27/I$33</f>
-        <v>0.18069209594966576</v>
+        <v>0.17312400979403716</v>
       </c>
       <c r="J38" s="20">
         <f t="shared" ref="J38:N38" si="1">J27/J$33</f>
-        <v>0.38918985471558731</v>
+        <v>0.33341095651161434</v>
       </c>
       <c r="K38" s="20">
         <f t="shared" si="1"/>
-        <v>0.20544653584301162</v>
+        <v>0.22162452931683702</v>
       </c>
       <c r="L38" s="20">
         <f t="shared" si="1"/>
-        <v>0.23839562009045465</v>
+        <v>0.22648849797023005</v>
       </c>
       <c r="M38" s="20">
         <f t="shared" si="1"/>
-        <v>0.43747580332946184</v>
+        <v>0.45577345593620311</v>
       </c>
       <c r="N38" s="20">
         <f t="shared" si="1"/>
-        <v>0.3062869425040301</v>
-      </c>
-      <c r="R38" s="9"/>
-      <c r="S38" s="9"/>
-      <c r="T38" s="9"/>
-      <c r="U38" s="9"/>
-      <c r="V38" s="9"/>
+        <v>0.30841799709724238</v>
+      </c>
+      <c r="P38" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q38" s="23">
+        <v>0.17312400979403716</v>
+      </c>
+      <c r="R38" s="23">
+        <v>0.33341095651161434</v>
+      </c>
+      <c r="S38" s="23">
+        <v>0.22162452931683702</v>
+      </c>
+      <c r="T38" s="23">
+        <v>0.22648849797023005</v>
+      </c>
+      <c r="U38" s="23">
+        <v>0.45577345593620311</v>
+      </c>
+      <c r="V38" s="23">
+        <v>0.30841799709724238</v>
+      </c>
       <c r="W38" s="9"/>
       <c r="X38" s="9"/>
-      <c r="Y38" s="9"/>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y38" s="24"/>
+      <c r="Z38" s="24"/>
+      <c r="AA38" s="24"/>
+      <c r="AB38" s="24"/>
+      <c r="AC38" s="24"/>
+      <c r="AD38" s="24"/>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>5</v>
       </c>
@@ -13524,45 +13718,66 @@
         <v>3</v>
       </c>
       <c r="E39" s="9">
-        <v>3306</v>
+        <v>1603</v>
       </c>
       <c r="H39" s="17" t="s">
         <v>8</v>
       </c>
       <c r="I39" s="20">
-        <f t="shared" ref="I39:N39" si="2">I28/I$33</f>
-        <v>0.24734565473849784</v>
+        <f t="shared" ref="I39:N42" si="2">I28/I$33</f>
+        <v>0.2547889961111911</v>
       </c>
       <c r="J39" s="20">
         <f t="shared" si="2"/>
-        <v>0.38151522613477795</v>
+        <v>0.36281073528555624</v>
       </c>
       <c r="K39" s="20">
         <f t="shared" si="2"/>
-        <v>0.33840608730476573</v>
+        <v>0.32490586336740185</v>
       </c>
       <c r="L39" s="20">
         <f t="shared" si="2"/>
-        <v>0.69638181385384434</v>
+        <v>0.62449255751014887</v>
       </c>
       <c r="M39" s="20">
         <f t="shared" si="2"/>
-        <v>0.79038769979536527</v>
+        <v>0.80299454796972902</v>
       </c>
       <c r="N39" s="20">
         <f t="shared" si="2"/>
-        <v>0.99731327243417522</v>
-      </c>
-      <c r="R39" s="9"/>
-      <c r="S39" s="9"/>
-      <c r="T39" s="9"/>
-      <c r="U39" s="9"/>
-      <c r="V39" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="P39" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q39" s="23">
+        <v>0.2547889961111911</v>
+      </c>
+      <c r="R39" s="23">
+        <v>0.36281073528555624</v>
+      </c>
+      <c r="S39" s="23">
+        <v>0.32490586336740185</v>
+      </c>
+      <c r="T39" s="23">
+        <v>0.62449255751014887</v>
+      </c>
+      <c r="U39" s="23">
+        <v>0.80299454796972902</v>
+      </c>
+      <c r="V39" s="23">
+        <v>1</v>
+      </c>
       <c r="W39" s="9"/>
       <c r="X39" s="9"/>
-      <c r="Y39" s="9"/>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y39" s="24"/>
+      <c r="Z39" s="24"/>
+      <c r="AA39" s="24"/>
+      <c r="AB39" s="24"/>
+      <c r="AC39" s="24"/>
+      <c r="AD39" s="24"/>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>5</v>
       </c>
@@ -13576,45 +13791,66 @@
         <v>4</v>
       </c>
       <c r="E40" s="9">
-        <v>2140</v>
+        <v>1612</v>
       </c>
       <c r="H40" s="17" t="s">
         <v>9</v>
       </c>
       <c r="I40" s="20">
-        <f t="shared" ref="I40:N40" si="3">I29/I$33</f>
-        <v>0.26740070782540309</v>
+        <f t="shared" si="2"/>
+        <v>0.25838974506697393</v>
       </c>
       <c r="J40" s="20">
-        <f t="shared" si="3"/>
-        <v>0.40876631371583355</v>
+        <f t="shared" si="2"/>
+        <v>0.3741049077254468</v>
       </c>
       <c r="K40" s="20">
-        <f t="shared" si="3"/>
-        <v>0.33600320384461352</v>
+        <f t="shared" si="2"/>
+        <v>0.33458848843464228</v>
       </c>
       <c r="L40" s="20">
-        <f t="shared" si="3"/>
-        <v>0.6691263984765532</v>
+        <f t="shared" si="2"/>
+        <v>0.65696887686062244</v>
       </c>
       <c r="M40" s="20">
-        <f t="shared" si="3"/>
-        <v>0.76361926884574971</v>
+        <f t="shared" si="2"/>
+        <v>0.75921555862966883</v>
       </c>
       <c r="N40" s="20">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="R40" s="9"/>
-      <c r="S40" s="9"/>
-      <c r="T40" s="9"/>
-      <c r="U40" s="9"/>
-      <c r="V40" s="9"/>
+        <f t="shared" si="2"/>
+        <v>0.99854862119013066</v>
+      </c>
+      <c r="P40" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q40" s="23">
+        <v>0.25838974506697393</v>
+      </c>
+      <c r="R40" s="23">
+        <v>0.3741049077254468</v>
+      </c>
+      <c r="S40" s="23">
+        <v>0.33458848843464228</v>
+      </c>
+      <c r="T40" s="23">
+        <v>0.65696887686062244</v>
+      </c>
+      <c r="U40" s="23">
+        <v>0.75921555862966883</v>
+      </c>
+      <c r="V40" s="23">
+        <v>0.99854862119013066</v>
+      </c>
       <c r="W40" s="9"/>
       <c r="X40" s="9"/>
-      <c r="Y40" s="9"/>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y40" s="24"/>
+      <c r="Z40" s="24"/>
+      <c r="AA40" s="24"/>
+      <c r="AB40" s="24"/>
+      <c r="AC40" s="24"/>
+      <c r="AD40" s="24"/>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>5</v>
       </c>
@@ -13628,45 +13864,66 @@
         <v>5</v>
       </c>
       <c r="E41" s="9">
-        <v>2101</v>
+        <v>1599</v>
       </c>
       <c r="H41" s="17" t="s">
         <v>10</v>
       </c>
       <c r="I41" s="20">
-        <f t="shared" ref="I41:N41" si="4">I30/I$33</f>
-        <v>0.97198191112858823</v>
+        <f t="shared" si="2"/>
+        <v>0.99524701137836669</v>
       </c>
       <c r="J41" s="20">
-        <f t="shared" si="4"/>
-        <v>0.94882212919642128</v>
+        <f t="shared" si="2"/>
+        <v>0.93788205158060201</v>
       </c>
       <c r="K41" s="20">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0.97902097902097907</v>
       </c>
       <c r="L41" s="20">
-        <f t="shared" si="4"/>
-        <v>0.96941204475124976</v>
+        <f t="shared" si="2"/>
+        <v>0.99695534506089312</v>
       </c>
       <c r="M41" s="20">
-        <f t="shared" si="4"/>
-        <v>0.94723743155798901</v>
+        <f t="shared" si="2"/>
+        <v>0.97094962975018306</v>
       </c>
       <c r="N41" s="20">
-        <f t="shared" si="4"/>
-        <v>0.96937130574959696</v>
-      </c>
-      <c r="R41" s="9"/>
-      <c r="S41" s="9"/>
-      <c r="T41" s="9"/>
-      <c r="U41" s="9"/>
-      <c r="V41" s="9"/>
+        <f t="shared" si="2"/>
+        <v>0.98984034833091439</v>
+      </c>
+      <c r="P41" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q41" s="23">
+        <v>0.99524701137836669</v>
+      </c>
+      <c r="R41" s="23">
+        <v>0.93788205158060201</v>
+      </c>
+      <c r="S41" s="23">
+        <v>0.97902097902097907</v>
+      </c>
+      <c r="T41" s="23">
+        <v>0.99695534506089312</v>
+      </c>
+      <c r="U41" s="23">
+        <v>0.97094962975018306</v>
+      </c>
+      <c r="V41" s="23">
+        <v>0.98984034833091439</v>
+      </c>
       <c r="W41" s="9"/>
       <c r="X41" s="9"/>
-      <c r="Y41" s="9"/>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y41" s="24"/>
+      <c r="Z41" s="24"/>
+      <c r="AA41" s="24"/>
+      <c r="AB41" s="24"/>
+      <c r="AC41" s="24"/>
+      <c r="AD41" s="24"/>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>5</v>
       </c>
@@ -13680,45 +13937,66 @@
         <v>1</v>
       </c>
       <c r="E42" s="9">
-        <v>5493</v>
+        <v>4023</v>
       </c>
       <c r="H42" s="18" t="s">
         <v>11</v>
       </c>
       <c r="I42" s="20">
-        <f t="shared" ref="I42:N42" si="5">I31/I$33</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J42" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K42" s="20">
-        <f t="shared" si="5"/>
-        <v>0.97036443732478972</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="L42" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M42" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="N42" s="20">
-        <f t="shared" si="5"/>
-        <v>0.98065556152606126</v>
-      </c>
-      <c r="R42" s="9"/>
-      <c r="S42" s="9"/>
-      <c r="T42" s="9"/>
-      <c r="U42" s="9"/>
-      <c r="V42" s="9"/>
+        <f t="shared" si="2"/>
+        <v>0.99709724238026121</v>
+      </c>
+      <c r="P42" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q42" s="23">
+        <v>1</v>
+      </c>
+      <c r="R42" s="23">
+        <v>1</v>
+      </c>
+      <c r="S42" s="23">
+        <v>1</v>
+      </c>
+      <c r="T42" s="23">
+        <v>1</v>
+      </c>
+      <c r="U42" s="23">
+        <v>1</v>
+      </c>
+      <c r="V42" s="23">
+        <v>0.99709724238026121</v>
+      </c>
       <c r="W42" s="9"/>
       <c r="X42" s="9"/>
-      <c r="Y42" s="9"/>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y42" s="24"/>
+      <c r="Z42" s="24"/>
+      <c r="AA42" s="24"/>
+      <c r="AB42" s="24"/>
+      <c r="AC42" s="24"/>
+      <c r="AD42" s="24"/>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>5</v>
       </c>
@@ -13732,7 +14010,7 @@
         <v>2</v>
       </c>
       <c r="E43" s="9">
-        <v>5401</v>
+        <v>4068</v>
       </c>
       <c r="R43" s="9"/>
       <c r="S43" s="9"/>
@@ -13743,7 +14021,7 @@
       <c r="X43" s="9"/>
       <c r="Y43" s="9"/>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>5</v>
       </c>
@@ -13757,7 +14035,7 @@
         <v>3</v>
       </c>
       <c r="E44" s="9">
-        <v>6782</v>
+        <v>3988</v>
       </c>
       <c r="R44" s="9"/>
       <c r="S44" s="9"/>
@@ -13768,7 +14046,7 @@
       <c r="X44" s="9"/>
       <c r="Y44" s="9"/>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>5</v>
       </c>
@@ -13782,7 +14060,7 @@
         <v>4</v>
       </c>
       <c r="E45" s="9">
-        <v>5345</v>
+        <v>4026</v>
       </c>
       <c r="H45" s="9" t="s">
         <v>22</v>
@@ -13794,7 +14072,7 @@
       <c r="M45" s="9"/>
       <c r="N45" s="9"/>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>5</v>
       </c>
@@ -13808,7 +14086,7 @@
         <v>5</v>
       </c>
       <c r="E46" s="9">
-        <v>5591</v>
+        <v>4028</v>
       </c>
       <c r="H46" s="10"/>
       <c r="I46" s="12" t="s">
@@ -13822,7 +14100,7 @@
       <c r="M46" s="11"/>
       <c r="N46" s="12"/>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>5</v>
       </c>
@@ -13836,7 +14114,7 @@
         <v>1</v>
       </c>
       <c r="E47" s="9">
-        <v>5558</v>
+        <v>4290</v>
       </c>
       <c r="H47" s="13"/>
       <c r="I47" s="15" t="s">
@@ -13858,7 +14136,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>5</v>
       </c>
@@ -13872,7 +14150,7 @@
         <v>2</v>
       </c>
       <c r="E48" s="9">
-        <v>6823</v>
+        <v>4354</v>
       </c>
       <c r="H48" s="16" t="s">
         <v>7</v>
@@ -13895,8 +14173,14 @@
       <c r="N48" s="21">
         <v>0.38918985471558731</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q48" s="23"/>
+      <c r="R48" s="23"/>
+      <c r="S48" s="23"/>
+      <c r="T48" s="23"/>
+      <c r="U48" s="23"/>
+      <c r="V48" s="23"/>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>5</v>
       </c>
@@ -13910,7 +14194,7 @@
         <v>3</v>
       </c>
       <c r="E49" s="9">
-        <v>5857</v>
+        <v>4235</v>
       </c>
       <c r="H49" s="17" t="s">
         <v>8</v>
@@ -13933,8 +14217,14 @@
       <c r="N49" s="22">
         <v>0.38151522613477795</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q49" s="23"/>
+      <c r="R49" s="23"/>
+      <c r="S49" s="23"/>
+      <c r="T49" s="23"/>
+      <c r="U49" s="23"/>
+      <c r="V49" s="23"/>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>5</v>
       </c>
@@ -13948,7 +14238,7 @@
         <v>4</v>
       </c>
       <c r="E50" s="9">
-        <v>5997</v>
+        <v>4328</v>
       </c>
       <c r="H50" s="17" t="s">
         <v>9</v>
@@ -13971,8 +14261,14 @@
       <c r="N50" s="22">
         <v>0.40876631371583355</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q50" s="23"/>
+      <c r="R50" s="23"/>
+      <c r="S50" s="23"/>
+      <c r="T50" s="23"/>
+      <c r="U50" s="23"/>
+      <c r="V50" s="23"/>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>5</v>
       </c>
@@ -13986,7 +14282,7 @@
         <v>5</v>
       </c>
       <c r="E51" s="9">
-        <v>5689</v>
+        <v>4260</v>
       </c>
       <c r="H51" s="17" t="s">
         <v>10</v>
@@ -14009,8 +14305,14 @@
       <c r="N51" s="22">
         <v>0.94882212919642128</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q51" s="23"/>
+      <c r="R51" s="23"/>
+      <c r="S51" s="23"/>
+      <c r="T51" s="23"/>
+      <c r="U51" s="23"/>
+      <c r="V51" s="23"/>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>13</v>
       </c>
@@ -14024,7 +14326,7 @@
         <v>1</v>
       </c>
       <c r="E52" s="9">
-        <v>198</v>
+        <v>118</v>
       </c>
       <c r="H52" s="18" t="s">
         <v>11</v>
@@ -14047,8 +14349,14 @@
       <c r="N52" s="22">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q52" s="23"/>
+      <c r="R52" s="23"/>
+      <c r="S52" s="23"/>
+      <c r="T52" s="23"/>
+      <c r="U52" s="23"/>
+      <c r="V52" s="23"/>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>13</v>
       </c>
@@ -14062,10 +14370,10 @@
         <v>2</v>
       </c>
       <c r="E53" s="9">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>13</v>
       </c>
@@ -14079,10 +14387,10 @@
         <v>3</v>
       </c>
       <c r="E54" s="9">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>13</v>
       </c>
@@ -14096,10 +14404,10 @@
         <v>4</v>
       </c>
       <c r="E55" s="9">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>13</v>
       </c>
@@ -14113,10 +14421,10 @@
         <v>5</v>
       </c>
       <c r="E56" s="9">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>13</v>
       </c>
@@ -14130,10 +14438,10 @@
         <v>1</v>
       </c>
       <c r="E57" s="9">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>13</v>
       </c>
@@ -14147,10 +14455,10 @@
         <v>2</v>
       </c>
       <c r="E58" s="9">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>13</v>
       </c>
@@ -14164,10 +14472,10 @@
         <v>3</v>
       </c>
       <c r="E59" s="9">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>13</v>
       </c>
@@ -14181,10 +14489,10 @@
         <v>4</v>
       </c>
       <c r="E60" s="9">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>13</v>
       </c>
@@ -14198,10 +14506,10 @@
         <v>5</v>
       </c>
       <c r="E61" s="9">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>13</v>
       </c>
@@ -14215,10 +14523,10 @@
         <v>1</v>
       </c>
       <c r="E62" s="9">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>13</v>
       </c>
@@ -14232,10 +14540,10 @@
         <v>2</v>
       </c>
       <c r="E63" s="9">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
         <v>13</v>
       </c>
@@ -14249,7 +14557,7 @@
         <v>3</v>
       </c>
       <c r="E64" s="9">
-        <v>484</v>
+        <v>352</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -14266,7 +14574,7 @@
         <v>4</v>
       </c>
       <c r="E65" s="9">
-        <v>438</v>
+        <v>339</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -14283,7 +14591,7 @@
         <v>5</v>
       </c>
       <c r="E66" s="9">
-        <v>444</v>
+        <v>342</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -14300,7 +14608,7 @@
         <v>1</v>
       </c>
       <c r="E67" s="9">
-        <v>441</v>
+        <v>339</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -14317,7 +14625,7 @@
         <v>2</v>
       </c>
       <c r="E68" s="9">
-        <v>468</v>
+        <v>345</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -14334,7 +14642,7 @@
         <v>3</v>
       </c>
       <c r="E69" s="9">
-        <v>420</v>
+        <v>339</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -14351,7 +14659,7 @@
         <v>4</v>
       </c>
       <c r="E70" s="9">
-        <v>469</v>
+        <v>338</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -14368,7 +14676,7 @@
         <v>5</v>
       </c>
       <c r="E71" s="9">
-        <v>447</v>
+        <v>342</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -14385,7 +14693,7 @@
         <v>1</v>
       </c>
       <c r="E72" s="9">
-        <v>456</v>
+        <v>357</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -14402,7 +14710,7 @@
         <v>2</v>
       </c>
       <c r="E73" s="9">
-        <v>482</v>
+        <v>346</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -14419,7 +14727,7 @@
         <v>3</v>
       </c>
       <c r="E74" s="9">
-        <v>463</v>
+        <v>339</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -14436,7 +14744,7 @@
         <v>4</v>
       </c>
       <c r="E75" s="9">
-        <v>458</v>
+        <v>346</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -14453,7 +14761,7 @@
         <v>5</v>
       </c>
       <c r="E76" s="9">
-        <v>422</v>
+        <v>343</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -14470,7 +14778,7 @@
         <v>1</v>
       </c>
       <c r="E77" s="9">
-        <v>151</v>
+        <v>102</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -14487,7 +14795,7 @@
         <v>2</v>
       </c>
       <c r="E78" s="9">
-        <v>127</v>
+        <v>108</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -14504,7 +14812,7 @@
         <v>3</v>
       </c>
       <c r="E79" s="9">
-        <v>131</v>
+        <v>101</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -14521,7 +14829,7 @@
         <v>4</v>
       </c>
       <c r="E80" s="9">
-        <v>130</v>
+        <v>102</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -14538,7 +14846,7 @@
         <v>5</v>
       </c>
       <c r="E81" s="9">
-        <v>125</v>
+        <v>101</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -14555,7 +14863,7 @@
         <v>1</v>
       </c>
       <c r="E82" s="9">
-        <v>185</v>
+        <v>149</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -14572,7 +14880,7 @@
         <v>2</v>
       </c>
       <c r="E83" s="9">
-        <v>217</v>
+        <v>157</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -14589,7 +14897,7 @@
         <v>3</v>
       </c>
       <c r="E84" s="9">
-        <v>208</v>
+        <v>149</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -14606,7 +14914,7 @@
         <v>4</v>
       </c>
       <c r="E85" s="9">
-        <v>219</v>
+        <v>148</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -14623,7 +14931,7 @@
         <v>5</v>
       </c>
       <c r="E86" s="9">
-        <v>201</v>
+        <v>150</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -14640,7 +14948,7 @@
         <v>1</v>
       </c>
       <c r="E87" s="9">
-        <v>215</v>
+        <v>163</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -14657,7 +14965,7 @@
         <v>2</v>
       </c>
       <c r="E88" s="9">
-        <v>236</v>
+        <v>156</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -14674,7 +14982,7 @@
         <v>3</v>
       </c>
       <c r="E89" s="9">
-        <v>206</v>
+        <v>156</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -14691,7 +14999,7 @@
         <v>4</v>
       </c>
       <c r="E90" s="9">
-        <v>201</v>
+        <v>155</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -14708,7 +15016,7 @@
         <v>5</v>
       </c>
       <c r="E91" s="9">
-        <v>196</v>
+        <v>155</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -14725,7 +15033,7 @@
         <v>1</v>
       </c>
       <c r="E92" s="9">
-        <v>560</v>
+        <v>449</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -14742,7 +15050,7 @@
         <v>2</v>
       </c>
       <c r="E93" s="9">
-        <v>632</v>
+        <v>453</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -14759,7 +15067,7 @@
         <v>3</v>
       </c>
       <c r="E94" s="9">
-        <v>613</v>
+        <v>454</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -14776,7 +15084,7 @@
         <v>4</v>
       </c>
       <c r="E95" s="9">
-        <v>631</v>
+        <v>450</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -14793,7 +15101,7 @@
         <v>5</v>
       </c>
       <c r="E96" s="9">
-        <v>621</v>
+        <v>463</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -14810,7 +15118,7 @@
         <v>1</v>
       </c>
       <c r="E97" s="9">
-        <v>649</v>
+        <v>468</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -14827,7 +15135,7 @@
         <v>2</v>
       </c>
       <c r="E98" s="9">
-        <v>622</v>
+        <v>459</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -14844,7 +15152,7 @@
         <v>3</v>
       </c>
       <c r="E99" s="9">
-        <v>611</v>
+        <v>468</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -14861,7 +15169,7 @@
         <v>4</v>
       </c>
       <c r="E100" s="9">
-        <v>595</v>
+        <v>460</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -14878,7 +15186,7 @@
         <v>5</v>
       </c>
       <c r="E101" s="9">
-        <v>595</v>
+        <v>472</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -14895,7 +15203,7 @@
         <v>1</v>
       </c>
       <c r="E102" s="9">
-        <v>477</v>
+        <v>347</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -14912,7 +15220,7 @@
         <v>2</v>
       </c>
       <c r="E103" s="9">
-        <v>539</v>
+        <v>337</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -14929,7 +15237,7 @@
         <v>3</v>
       </c>
       <c r="E104" s="9">
-        <v>474</v>
+        <v>332</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -14946,7 +15254,7 @@
         <v>4</v>
       </c>
       <c r="E105" s="9">
-        <v>450</v>
+        <v>336</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -14963,7 +15271,7 @@
         <v>5</v>
       </c>
       <c r="E106" s="9">
-        <v>540</v>
+        <v>334</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -14980,7 +15288,7 @@
         <v>1</v>
       </c>
       <c r="E107" s="9">
-        <v>1349</v>
+        <v>894</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -14997,7 +15305,7 @@
         <v>2</v>
       </c>
       <c r="E108" s="9">
-        <v>1515</v>
+        <v>945</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -15014,7 +15322,7 @@
         <v>3</v>
       </c>
       <c r="E109" s="9">
-        <v>1407</v>
+        <v>940</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -15031,7 +15339,7 @@
         <v>4</v>
       </c>
       <c r="E110" s="9">
-        <v>1525</v>
+        <v>903</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -15048,7 +15356,7 @@
         <v>5</v>
       </c>
       <c r="E111" s="9">
-        <v>1404</v>
+        <v>904</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -15065,7 +15373,7 @@
         <v>1</v>
       </c>
       <c r="E112" s="9">
-        <v>1894</v>
+        <v>996</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -15082,7 +15390,7 @@
         <v>2</v>
       </c>
       <c r="E113" s="9">
-        <v>1380</v>
+        <v>941</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -15099,7 +15407,7 @@
         <v>3</v>
       </c>
       <c r="E114" s="9">
-        <v>1349</v>
+        <v>968</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -15116,7 +15424,7 @@
         <v>4</v>
       </c>
       <c r="E115" s="9">
-        <v>1560</v>
+        <v>988</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -15133,7 +15441,7 @@
         <v>5</v>
       </c>
       <c r="E116" s="9">
-        <v>1333</v>
+        <v>987</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -15150,7 +15458,7 @@
         <v>1</v>
       </c>
       <c r="E117" s="9">
-        <v>2130</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -15167,7 +15475,7 @@
         <v>2</v>
       </c>
       <c r="E118" s="9">
-        <v>2024</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -15184,7 +15492,7 @@
         <v>3</v>
       </c>
       <c r="E119" s="9">
-        <v>2041</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -15201,7 +15509,7 @@
         <v>4</v>
       </c>
       <c r="E120" s="9">
-        <v>2039</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -15218,7 +15526,7 @@
         <v>5</v>
       </c>
       <c r="E121" s="9">
-        <v>2041</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -15235,7 +15543,7 @@
         <v>1</v>
       </c>
       <c r="E122" s="9">
-        <v>2061</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -15252,7 +15560,7 @@
         <v>2</v>
       </c>
       <c r="E123" s="9">
-        <v>2132</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -15269,7 +15577,7 @@
         <v>3</v>
       </c>
       <c r="E124" s="9">
-        <v>2091</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -15286,7 +15594,7 @@
         <v>4</v>
       </c>
       <c r="E125" s="9">
-        <v>2050</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -15303,7 +15611,7 @@
         <v>5</v>
       </c>
       <c r="E126" s="9">
-        <v>2129</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -15320,7 +15628,7 @@
         <v>1</v>
       </c>
       <c r="E127" s="9">
-        <v>498</v>
+        <v>347</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -15337,7 +15645,7 @@
         <v>2</v>
       </c>
       <c r="E128" s="9">
-        <v>448</v>
+        <v>300</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -15354,7 +15662,7 @@
         <v>3</v>
       </c>
       <c r="E129" s="9">
-        <v>494</v>
+        <v>302</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -15371,7 +15679,7 @@
         <v>4</v>
       </c>
       <c r="E130" s="9">
-        <v>502</v>
+        <v>301</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -15388,7 +15696,7 @@
         <v>5</v>
       </c>
       <c r="E131" s="9">
-        <v>394</v>
+        <v>299</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -15405,7 +15713,7 @@
         <v>1</v>
       </c>
       <c r="E132" s="9">
-        <v>623</v>
+        <v>432</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -15422,7 +15730,7 @@
         <v>2</v>
       </c>
       <c r="E133" s="9">
-        <v>562</v>
+        <v>478</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -15439,7 +15747,7 @@
         <v>3</v>
       </c>
       <c r="E134" s="9">
-        <v>594</v>
+        <v>430</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -15456,7 +15764,7 @@
         <v>4</v>
       </c>
       <c r="E135" s="9">
-        <v>654</v>
+        <v>431</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -15473,7 +15781,7 @@
         <v>5</v>
       </c>
       <c r="E136" s="9">
-        <v>706</v>
+        <v>430</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -15490,7 +15798,7 @@
         <v>1</v>
       </c>
       <c r="E137" s="9">
-        <v>627</v>
+        <v>432</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -15507,7 +15815,7 @@
         <v>2</v>
       </c>
       <c r="E138" s="9">
-        <v>624</v>
+        <v>484</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -15524,7 +15832,7 @@
         <v>3</v>
       </c>
       <c r="E139" s="9">
-        <v>566</v>
+        <v>439</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -15541,7 +15849,7 @@
         <v>4</v>
       </c>
       <c r="E140" s="9">
-        <v>786</v>
+        <v>436</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -15558,7 +15866,7 @@
         <v>5</v>
       </c>
       <c r="E141" s="9">
-        <v>744</v>
+        <v>435</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -15575,7 +15883,7 @@
         <v>1</v>
       </c>
       <c r="E142" s="9">
-        <v>2592</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -15592,7 +15900,7 @@
         <v>2</v>
       </c>
       <c r="E143" s="9">
-        <v>2587</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -15609,7 +15917,7 @@
         <v>3</v>
       </c>
       <c r="E144" s="9">
-        <v>2436</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -15626,7 +15934,7 @@
         <v>4</v>
       </c>
       <c r="E145" s="9">
-        <v>2452</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -15643,7 +15951,7 @@
         <v>5</v>
       </c>
       <c r="E146" s="9">
-        <v>2412</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -15660,7 +15968,7 @@
         <v>1</v>
       </c>
       <c r="E147" s="9">
-        <v>2579</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -15677,7 +15985,7 @@
         <v>2</v>
       </c>
       <c r="E148" s="9">
-        <v>2662</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -15694,7 +16002,7 @@
         <v>3</v>
       </c>
       <c r="E149" s="9">
-        <v>2504</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -15711,7 +16019,7 @@
         <v>4</v>
       </c>
       <c r="E150" s="9">
-        <v>2510</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -15728,7 +16036,7 @@
         <v>5</v>
       </c>
       <c r="E151" s="9">
-        <v>2496</v>
+        <v>1732</v>
       </c>
     </row>
   </sheetData>
